--- a/www/other/Facts-2016-03-04.xlsx
+++ b/www/other/Facts-2016-03-04.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\SandMan\Websites\ODA-SM-16\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mel\Documents\GitHub\ODA-SM-16\www\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="77">
   <si>
     <t>Harry Styles was born on 1st February 1994 making him the youngest member of 1D. His star sign is Aquarius.</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Seen</t>
+  </si>
+  <si>
+    <t>While on The X Factor, Harry had a big crush on judge Cheryl Cole and X Factor host Caroline Flack. He’s joked that his man crush is Louis Tomlinson!</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1018,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C65"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,7 +1642,7 @@
         <v>65</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
